--- a/results/grid_mlp.xlsx
+++ b/results/grid_mlp.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natty\Documents\github\pricefcast\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3877C5-A997-4B36-ABED-530588DFA7DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hml" sheetId="1" r:id="rId1"/>
     <sheet name="wht" sheetId="2" r:id="rId2"/>
     <sheet name="glu" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
   <si>
     <t>rmse</t>
   </si>
@@ -30,107 +36,155 @@
     <t>config</t>
   </si>
   <si>
-    <t>6-1-10-50-50-inf</t>
-  </si>
-  <si>
-    <t>6-1-10-50-100-inf</t>
-  </si>
-  <si>
-    <t>6-1-10-100-50-inf</t>
-  </si>
-  <si>
-    <t>6-1-10-100-100-inf</t>
-  </si>
-  <si>
-    <t>6-1-20-50-50-inf</t>
-  </si>
-  <si>
-    <t>6-1-20-50-100-inf</t>
-  </si>
-  <si>
-    <t>6-1-20-100-50-inf</t>
-  </si>
-  <si>
-    <t>6-1-20-100-100-inf</t>
-  </si>
-  <si>
-    <t>6-2-10-50-50-inf</t>
-  </si>
-  <si>
-    <t>6-2-10-50-100-inf</t>
-  </si>
-  <si>
-    <t>6-2-10-100-50-inf</t>
-  </si>
-  <si>
-    <t>6-2-10-100-100-inf</t>
-  </si>
-  <si>
-    <t>6-2-20-50-50-inf</t>
-  </si>
-  <si>
-    <t>6-2-20-50-100-inf</t>
-  </si>
-  <si>
-    <t>6-2-20-100-50-inf</t>
-  </si>
-  <si>
-    <t>6-2-20-100-100-inf</t>
-  </si>
-  <si>
-    <t>12-1-10-50-50-inf</t>
-  </si>
-  <si>
-    <t>12-1-10-50-100-inf</t>
-  </si>
-  <si>
-    <t>12-1-10-100-50-inf</t>
-  </si>
-  <si>
-    <t>12-1-10-100-100-inf</t>
-  </si>
-  <si>
-    <t>12-1-20-50-50-inf</t>
-  </si>
-  <si>
-    <t>12-1-20-50-100-inf</t>
-  </si>
-  <si>
-    <t>12-1-20-100-50-inf</t>
-  </si>
-  <si>
-    <t>12-1-20-100-100-inf</t>
-  </si>
-  <si>
-    <t>12-2-10-50-50-inf</t>
-  </si>
-  <si>
-    <t>12-2-10-50-100-inf</t>
-  </si>
-  <si>
-    <t>12-2-10-100-50-inf</t>
-  </si>
-  <si>
-    <t>12-2-10-100-100-inf</t>
-  </si>
-  <si>
-    <t>12-2-20-50-50-inf</t>
-  </si>
-  <si>
-    <t>12-2-20-50-100-inf</t>
-  </si>
-  <si>
-    <t>12-2-20-100-50-inf</t>
-  </si>
-  <si>
-    <t>12-2-20-100-100-inf</t>
+    <t>5-1-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>5-1-20-50-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>5-2-20-50-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>11-1-20-50-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>11-2-20-50-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>17-1-20-50-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-10-5-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-10-10-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-10-20-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-10-50-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-20-5-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-20-10-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-20-20-64-inf</t>
+  </si>
+  <si>
+    <t>17-2-20-50-64-inf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +247,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -239,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,9 +333,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,6 +385,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,14 +578,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -501,452 +604,676 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>753.1081559495084</v>
+        <v>767.47188740458887</v>
       </c>
       <c r="C2">
-        <v>448.5267237438034</v>
+        <v>454.39362590034392</v>
       </c>
       <c r="D2">
-        <v>0.03495182032610262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>3.5230277422246208E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>704.7766012698413</v>
+        <v>791.95870600014928</v>
       </c>
       <c r="C3">
-        <v>406.0907653504947</v>
+        <v>471.81571660214502</v>
       </c>
       <c r="D3">
-        <v>0.03160278244816169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3.6277067656422322E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>709.6004819352414</v>
+        <v>771.20342783005685</v>
       </c>
       <c r="C4">
-        <v>407.5311137849501</v>
+        <v>462.07929029160363</v>
       </c>
       <c r="D4">
-        <v>0.03169526291385697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3.6032918460327218E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>738.1453022269205</v>
+        <v>818.49967055184095</v>
       </c>
       <c r="C5">
-        <v>434.7347017792692</v>
+        <v>478.08067910615188</v>
       </c>
       <c r="D5">
-        <v>0.03394642847377042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>3.7127486420109247E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>718.0651532415112</v>
+        <v>740.34381944831716</v>
       </c>
       <c r="C6">
-        <v>425.8471828526186</v>
+        <v>451.4552403600814</v>
       </c>
       <c r="D6">
-        <v>0.03317797327937231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3.5202064257480813E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>744.9665148710742</v>
+        <v>733.49143415504898</v>
       </c>
       <c r="C7">
-        <v>437.5404652633389</v>
+        <v>436.73580298861242</v>
       </c>
       <c r="D7">
-        <v>0.03416171501332702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.4070499440641798E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>733.0464522722122</v>
+        <v>716.70045373628489</v>
       </c>
       <c r="C8">
-        <v>434.8857963609054</v>
+        <v>416.39945743163429</v>
       </c>
       <c r="D8">
-        <v>0.03382612752021531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>3.2411156035927258E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>774.912719797219</v>
+        <v>706.70551935210426</v>
       </c>
       <c r="C9">
-        <v>463.3053162061047</v>
+        <v>415.90531102225339</v>
       </c>
       <c r="D9">
-        <v>0.0360282788428202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3.2497594262723577E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>735.4351269343397</v>
+        <v>699.20010886944692</v>
       </c>
       <c r="C10">
-        <v>437.0633960980883</v>
+        <v>402.31486517774721</v>
       </c>
       <c r="D10">
-        <v>0.03417781750397007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>3.1474306317825919E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>732.6118704354521</v>
+        <v>749.76333045961951</v>
       </c>
       <c r="C11">
-        <v>421.2766387209931</v>
+        <v>429.60505841809697</v>
       </c>
       <c r="D11">
-        <v>0.03280879954055659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>3.340969580255701E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>727.6372372648523</v>
+        <v>750.11925423974162</v>
       </c>
       <c r="C12">
-        <v>424.4130308109239</v>
+        <v>440.10118491028749</v>
       </c>
       <c r="D12">
-        <v>0.0330415366580033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>3.4307772990480788E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>752.5372258859966</v>
+        <v>734.7392967115627</v>
       </c>
       <c r="C13">
-        <v>448.8295432787462</v>
+        <v>430.13052637230129</v>
       </c>
       <c r="D13">
-        <v>0.03495812353837983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>3.356982007277208E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>713.9471374184126</v>
+        <v>712.18177352833152</v>
       </c>
       <c r="C14">
-        <v>419.7980079449786</v>
+        <v>416.70471814189528</v>
       </c>
       <c r="D14">
-        <v>0.0326240807933472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>3.2542930427912627E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>736.0031935113637</v>
+        <v>698.16854886032695</v>
       </c>
       <c r="C15">
-        <v>428.1631849777471</v>
+        <v>400.20296242201579</v>
       </c>
       <c r="D15">
-        <v>0.0332494989097074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>3.1167579598150062E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>777.0191657867081</v>
+        <v>713.98702499212823</v>
       </c>
       <c r="C16">
-        <v>454.9159862090416</v>
+        <v>412.3495433533858</v>
       </c>
       <c r="D16">
-        <v>0.03511287907433097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>3.2136647591341848E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>718.7610239208529</v>
+        <v>745.80265820330885</v>
       </c>
       <c r="C17">
-        <v>418.4635765770423</v>
+        <v>437.93804554067867</v>
       </c>
       <c r="D17">
-        <v>0.03242370629692942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>3.4088004321490672E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>737.5291207592497</v>
+        <v>878.89819834582704</v>
       </c>
       <c r="C18">
-        <v>441.2646323636599</v>
+        <v>550.70743479860641</v>
       </c>
       <c r="D18">
-        <v>0.03435584299368869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>4.306934512057925E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>745.5224263151061</v>
+        <v>853.14006118100258</v>
       </c>
       <c r="C19">
-        <v>440.8737633820292</v>
+        <v>489.53773116413538</v>
       </c>
       <c r="D19">
-        <v>0.0342747064928353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>3.7831921179600533E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>792.5944449187897</v>
+        <v>768.43080647867203</v>
       </c>
       <c r="C20">
-        <v>489.3537543136342</v>
+        <v>469.29820714980968</v>
       </c>
       <c r="D20">
-        <v>0.03793812985287967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>3.6560811408495417E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>729.3436482215901</v>
+        <v>762.93694179993224</v>
       </c>
       <c r="C21">
-        <v>436.1574090445956</v>
+        <v>459.73246379547379</v>
       </c>
       <c r="D21">
-        <v>0.03393832972269208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>3.5820520786777457E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>747.3620454285865</v>
+        <v>803.20759617988153</v>
       </c>
       <c r="C22">
-        <v>450.7585310202591</v>
+        <v>490.93582455693672</v>
       </c>
       <c r="D22">
-        <v>0.03488324826900138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>3.8256105322897208E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>750.3041506771812</v>
+        <v>778.8936432618799</v>
       </c>
       <c r="C23">
-        <v>452.5110587786852</v>
+        <v>472.54764619634221</v>
       </c>
       <c r="D23">
-        <v>0.03523866559167226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>3.7238864131950968E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>763.1615165906911</v>
+        <v>761.75395221368558</v>
       </c>
       <c r="C24">
-        <v>458.4834011470709</v>
+        <v>456.93897592049819</v>
       </c>
       <c r="D24">
-        <v>0.03558137755764838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>3.5666861558809222E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25">
-        <v>776.5996280634323</v>
+        <v>746.09883807732706</v>
       </c>
       <c r="C25">
-        <v>455.2536586219451</v>
+        <v>451.86232231619158</v>
       </c>
       <c r="D25">
-        <v>0.03522568883510961</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>3.5107563306872577E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>774.5190702627398</v>
+        <v>718.77557678198411</v>
       </c>
       <c r="C26">
-        <v>474.1757239550871</v>
+        <v>426.47177750405552</v>
       </c>
       <c r="D26">
-        <v>0.03691044595212944</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>3.3277563952485371E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27">
-        <v>700.1600461420333</v>
+        <v>718.14532545656914</v>
       </c>
       <c r="C27">
-        <v>403.9089861278885</v>
+        <v>421.84926384476938</v>
       </c>
       <c r="D27">
-        <v>0.03134928776135674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>3.2862345239986122E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B28">
-        <v>761.4700346334915</v>
+        <v>716.27060146876238</v>
       </c>
       <c r="C28">
-        <v>462.2757959502675</v>
+        <v>418.25822272345931</v>
       </c>
       <c r="D28">
-        <v>0.03573994403708957</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>3.2687018364106479E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B29">
-        <v>736.8941583802247</v>
+        <v>698.79520999594706</v>
       </c>
       <c r="C29">
-        <v>435.4337215225386</v>
+        <v>404.50446747750129</v>
       </c>
       <c r="D29">
-        <v>0.03381183602632073</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>3.1533244956904613E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B30">
-        <v>749.0728737104331</v>
+        <v>745.25739803489228</v>
       </c>
       <c r="C30">
-        <v>451.0891458058827</v>
+        <v>450.43139426943941</v>
       </c>
       <c r="D30">
-        <v>0.03505320448749472</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>3.53690086116243E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B31">
-        <v>725.3318657075872</v>
+        <v>733.53770108909634</v>
       </c>
       <c r="C31">
-        <v>432.542510804388</v>
+        <v>434.19449708839949</v>
       </c>
       <c r="D31">
-        <v>0.03364239073453463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>3.4004566556556731E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B32">
-        <v>798.984199442984</v>
+        <v>765.60967735213558</v>
       </c>
       <c r="C32">
-        <v>489.5271160672845</v>
+        <v>462.49435966947931</v>
       </c>
       <c r="D32">
-        <v>0.03781607306197292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>3.5857817969206451E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B33">
-        <v>775.1954887193671</v>
+        <v>743.65511145366122</v>
       </c>
       <c r="C33">
-        <v>473.5484448071334</v>
+        <v>449.20756350956827</v>
       </c>
       <c r="D33">
-        <v>0.03675663152219248</v>
+        <v>3.4932530456327819E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>862.82387723276952</v>
+      </c>
+      <c r="C34">
+        <v>540.07044403822374</v>
+      </c>
+      <c r="D34">
+        <v>4.2435130586004198E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>851.13792850470725</v>
+      </c>
+      <c r="C35">
+        <v>521.40700329138144</v>
+      </c>
+      <c r="D35">
+        <v>4.0514287376512567E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>757.85435796795957</v>
+      </c>
+      <c r="C36">
+        <v>453.86469064364297</v>
+      </c>
+      <c r="D36">
+        <v>3.5267969122302963E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>741.41572598613368</v>
+      </c>
+      <c r="C37">
+        <v>451.96565546820932</v>
+      </c>
+      <c r="D37">
+        <v>3.516543678427831E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>803.88419233964419</v>
+      </c>
+      <c r="C38">
+        <v>489.5503413319604</v>
+      </c>
+      <c r="D38">
+        <v>3.8332758222525833E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>791.77082821600243</v>
+      </c>
+      <c r="C39">
+        <v>493.3083628548672</v>
+      </c>
+      <c r="D39">
+        <v>3.8276983290431457E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>748.48112682219096</v>
+      </c>
+      <c r="C40">
+        <v>454.02252688970941</v>
+      </c>
+      <c r="D40">
+        <v>3.5258432090238732E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>735.64807417661029</v>
+      </c>
+      <c r="C41">
+        <v>443.14114725430358</v>
+      </c>
+      <c r="D41">
+        <v>3.4512738204870941E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>762.95633101002727</v>
+      </c>
+      <c r="C42">
+        <v>456.54229505314561</v>
+      </c>
+      <c r="D42">
+        <v>3.589762609909599E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>716.22163279865072</v>
+      </c>
+      <c r="C43">
+        <v>427.15925305259299</v>
+      </c>
+      <c r="D43">
+        <v>3.327747180762082E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>720.43382461326996</v>
+      </c>
+      <c r="C44">
+        <v>433.38333261617748</v>
+      </c>
+      <c r="D44">
+        <v>3.3905648900822087E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>726.04654217594862</v>
+      </c>
+      <c r="C45">
+        <v>433.97823605547012</v>
+      </c>
+      <c r="D45">
+        <v>3.4012818199240347E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>723.51125004798746</v>
+      </c>
+      <c r="C46">
+        <v>433.84390723951822</v>
+      </c>
+      <c r="D46">
+        <v>3.4017835328921962E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>742.75706507522818</v>
+      </c>
+      <c r="C47">
+        <v>451.38314689331742</v>
+      </c>
+      <c r="D47">
+        <v>3.502748087888314E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>740.62875824253683</v>
+      </c>
+      <c r="C48">
+        <v>443.35739473272662</v>
+      </c>
+      <c r="D48">
+        <v>3.4579713768357258E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>729.56367683889789</v>
+      </c>
+      <c r="C49">
+        <v>439.47564039364312</v>
+      </c>
+      <c r="D49">
+        <v>3.416490822012426E-2</v>
       </c>
     </row>
   </sheetData>
@@ -955,14 +1282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -976,452 +1303,676 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>651.0058508567348</v>
+        <v>743.79186337685189</v>
       </c>
       <c r="C2">
-        <v>362.7888323138703</v>
+        <v>414.81969580771499</v>
       </c>
       <c r="D2">
-        <v>0.03813529884859845</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>4.3622510446560382E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>623.4111413473421</v>
+        <v>693.75494224894089</v>
       </c>
       <c r="C3">
-        <v>351.0465162634399</v>
+        <v>388.9540578112593</v>
       </c>
       <c r="D3">
-        <v>0.03752847145422848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>4.1007598207749907E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>665.9236863920266</v>
+        <v>636.90055782932768</v>
       </c>
       <c r="C4">
-        <v>373.8618331628742</v>
+        <v>362.91958467533942</v>
       </c>
       <c r="D4">
-        <v>0.03953100300188304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3.8770313342994918E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>644.9136437222528</v>
+        <v>661.42134182676557</v>
       </c>
       <c r="C5">
-        <v>365.1499837772051</v>
+        <v>368.4824076914303</v>
       </c>
       <c r="D5">
-        <v>0.03870141347021202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>3.9021896840679492E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>664.2859451541328</v>
+        <v>618.15792792675234</v>
       </c>
       <c r="C6">
-        <v>369.9186916176061</v>
+        <v>348.21070958203501</v>
       </c>
       <c r="D6">
-        <v>0.0391494854378389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3.7158893235122302E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>673.1479721512064</v>
+        <v>622.72724932707297</v>
       </c>
       <c r="C7">
-        <v>382.7140682620588</v>
+        <v>346.75677068539471</v>
       </c>
       <c r="D7">
-        <v>0.04055195574235393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.6945509974705658E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>643.2613285667542</v>
+        <v>665.12399216614472</v>
       </c>
       <c r="C8">
-        <v>359.5316198052615</v>
+        <v>366.40153752361522</v>
       </c>
       <c r="D8">
-        <v>0.03814290213343158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>3.8570080413004727E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>649.4878276585762</v>
+        <v>649.55497275123298</v>
       </c>
       <c r="C9">
-        <v>354.9688220407398</v>
+        <v>357.18981856821091</v>
       </c>
       <c r="D9">
-        <v>0.03784599437517809</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3.7882996606087689E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>634.2124779753296</v>
+        <v>669.92812947909908</v>
       </c>
       <c r="C10">
-        <v>351.8611898120589</v>
+        <v>374.65415762164088</v>
       </c>
       <c r="D10">
-        <v>0.03728077276558011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>3.9750034348903222E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>604.9156536557084</v>
+        <v>611.03030282022291</v>
       </c>
       <c r="C11">
-        <v>336.9740208276771</v>
+        <v>332.92562615838688</v>
       </c>
       <c r="D11">
-        <v>0.03613949849836341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>3.5530441330615503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>638.460102641606</v>
+        <v>609.72862740938967</v>
       </c>
       <c r="C12">
-        <v>352.9425136340198</v>
+        <v>336.3796485394351</v>
       </c>
       <c r="D12">
-        <v>0.0374093099627152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>3.5999571910171342E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>649.2173409812209</v>
+        <v>635.88513207578399</v>
       </c>
       <c r="C13">
-        <v>353.0563128512202</v>
+        <v>354.39566838059261</v>
       </c>
       <c r="D13">
-        <v>0.03765326115522302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>3.7621600555195429E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>625.6113058819691</v>
+        <v>610.98368988054949</v>
       </c>
       <c r="C14">
-        <v>344.0527636653345</v>
+        <v>335.39693459045708</v>
       </c>
       <c r="D14">
-        <v>0.03676354197400697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>3.5904421437774427E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>657.5565463741412</v>
+        <v>628.77741136515829</v>
       </c>
       <c r="C15">
-        <v>361.7899106049842</v>
+        <v>350.77330167483649</v>
       </c>
       <c r="D15">
-        <v>0.03847425276549665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>3.7396029038967528E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>663.2491208991787</v>
+        <v>618.09095355297279</v>
       </c>
       <c r="C16">
-        <v>379.7460232808598</v>
+        <v>346.55042517132318</v>
       </c>
       <c r="D16">
-        <v>0.0403094589065771</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>3.6772315911981823E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>664.7380284632816</v>
+        <v>624.27438160208931</v>
       </c>
       <c r="C17">
-        <v>372.6167506415393</v>
+        <v>343.73990938893422</v>
       </c>
       <c r="D17">
-        <v>0.03940774587722348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>3.6806591028840013E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>699.9420359332987</v>
+        <v>762.32067861982148</v>
       </c>
       <c r="C18">
-        <v>418.9350620455346</v>
+        <v>458.79247907235901</v>
       </c>
       <c r="D18">
-        <v>0.04404110420769772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>4.8628043304854762E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>635.0842920664554</v>
+        <v>719.30403986988017</v>
       </c>
       <c r="C19">
-        <v>378.7921657438326</v>
+        <v>414.21473333733792</v>
       </c>
       <c r="D19">
-        <v>0.0403112445607518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>4.3690592248046847E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>650.8532073825661</v>
+        <v>651.67258654453815</v>
       </c>
       <c r="C20">
-        <v>382.4879065610606</v>
+        <v>385.22385087087542</v>
       </c>
       <c r="D20">
-        <v>0.0406560489304048</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>4.087256756409656E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>649.2839759403895</v>
+        <v>707.67596722693929</v>
       </c>
       <c r="C21">
-        <v>375.4954967025524</v>
+        <v>403.59461583148959</v>
       </c>
       <c r="D21">
-        <v>0.03983199850715931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>4.245803264032269E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>652.6662115293275</v>
+        <v>681.24366912956259</v>
       </c>
       <c r="C22">
-        <v>380.8692888561559</v>
+        <v>409.8594125080507</v>
       </c>
       <c r="D22">
-        <v>0.04046925154837418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>4.3669411871282447E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>683.3408123581378</v>
+        <v>684.5482406151001</v>
       </c>
       <c r="C23">
-        <v>401.997166477366</v>
+        <v>392.17485287865708</v>
       </c>
       <c r="D23">
-        <v>0.04242782342310676</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>4.1321471881513097E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>711.7507896306347</v>
+        <v>659.9216660542196</v>
       </c>
       <c r="C24">
-        <v>418.8364334235993</v>
+        <v>380.0551926053987</v>
       </c>
       <c r="D24">
-        <v>0.04392086546905657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>4.0403575585506959E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25">
-        <v>679.893282947002</v>
+        <v>637.97625207423846</v>
       </c>
       <c r="C25">
-        <v>392.6012857526018</v>
+        <v>357.53370906425732</v>
       </c>
       <c r="D25">
-        <v>0.04149759754015834</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>3.8072358639062269E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>636.6393757739144</v>
+        <v>657.00838618394505</v>
       </c>
       <c r="C26">
-        <v>369.6989774459793</v>
+        <v>374.85549728141541</v>
       </c>
       <c r="D26">
-        <v>0.03938648021516275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>3.9795751082575583E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27">
-        <v>648.3377520044916</v>
+        <v>616.26640152429252</v>
       </c>
       <c r="C27">
-        <v>366.6013236837703</v>
+        <v>347.69636235256343</v>
       </c>
       <c r="D27">
-        <v>0.03903700484105935</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>3.7229098750068371E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B28">
-        <v>639.4543729934853</v>
+        <v>627.8968113175481</v>
       </c>
       <c r="C28">
-        <v>363.5492120594105</v>
+        <v>358.15859953991611</v>
       </c>
       <c r="D28">
-        <v>0.03853694834758239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>3.8366246329923262E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B29">
-        <v>670.9213482321638</v>
+        <v>631.70890913129062</v>
       </c>
       <c r="C29">
-        <v>379.9832776726611</v>
+        <v>354.10627166091939</v>
       </c>
       <c r="D29">
-        <v>0.04022961085544181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>3.7791701060087897E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B30">
-        <v>631.5302224340932</v>
+        <v>643.4653947502344</v>
       </c>
       <c r="C30">
-        <v>367.3429144415435</v>
+        <v>367.02420129337662</v>
       </c>
       <c r="D30">
-        <v>0.03913361393646497</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>3.9068419335520653E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B31">
-        <v>670.0809748492837</v>
+        <v>655.20066619322756</v>
       </c>
       <c r="C31">
-        <v>395.3125317205643</v>
+        <v>376.33541107109221</v>
       </c>
       <c r="D31">
-        <v>0.04180361888052573</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>4.0010842707135771E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B32">
-        <v>679.8021335809577</v>
+        <v>629.6005818580436</v>
       </c>
       <c r="C32">
-        <v>399.2386479926669</v>
+        <v>365.56742668977392</v>
       </c>
       <c r="D32">
-        <v>0.04205361184776517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>3.9062763938327603E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B33">
-        <v>678.5837579915798</v>
+        <v>662.97947902807744</v>
       </c>
       <c r="C33">
-        <v>408.5736005166056</v>
+        <v>373.01557484808188</v>
       </c>
       <c r="D33">
-        <v>0.04298080577732567</v>
+        <v>3.9919833054806772E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>708.4146058749875</v>
+      </c>
+      <c r="C34">
+        <v>424.92506322148358</v>
+      </c>
+      <c r="D34">
+        <v>4.5524587022933362E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>724.4581971111005</v>
+      </c>
+      <c r="C35">
+        <v>431.9619015879058</v>
+      </c>
+      <c r="D35">
+        <v>4.5598641796516078E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>685.97481228616289</v>
+      </c>
+      <c r="C36">
+        <v>399.57330623404403</v>
+      </c>
+      <c r="D36">
+        <v>4.2764302767608432E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>694.29523777190184</v>
+      </c>
+      <c r="C37">
+        <v>405.07110500478211</v>
+      </c>
+      <c r="D37">
+        <v>4.3264489226441979E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>697.90984388096831</v>
+      </c>
+      <c r="C38">
+        <v>412.28191588029432</v>
+      </c>
+      <c r="D38">
+        <v>4.4254521531716627E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>700.42796308214179</v>
+      </c>
+      <c r="C39">
+        <v>420.17022338880457</v>
+      </c>
+      <c r="D39">
+        <v>4.4840588871401237E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>655.63557362231586</v>
+      </c>
+      <c r="C40">
+        <v>379.1648025097021</v>
+      </c>
+      <c r="D40">
+        <v>4.0634701516802783E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>706.82596029303102</v>
+      </c>
+      <c r="C41">
+        <v>419.55868669333307</v>
+      </c>
+      <c r="D41">
+        <v>4.4610880300166841E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>655.36415230625778</v>
+      </c>
+      <c r="C42">
+        <v>376.18285204247178</v>
+      </c>
+      <c r="D42">
+        <v>4.0338125276196249E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>633.69412973464341</v>
+      </c>
+      <c r="C43">
+        <v>353.44101268857298</v>
+      </c>
+      <c r="D43">
+        <v>3.7776273367758281E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>642.40717655017363</v>
+      </c>
+      <c r="C44">
+        <v>365.42634485072301</v>
+      </c>
+      <c r="D44">
+        <v>3.9352379092413861E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>607.74910230872206</v>
+      </c>
+      <c r="C45">
+        <v>340.68847628882179</v>
+      </c>
+      <c r="D45">
+        <v>3.6431133633328568E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>656.91107333187654</v>
+      </c>
+      <c r="C46">
+        <v>374.04201510361838</v>
+      </c>
+      <c r="D46">
+        <v>3.9940032907754337E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>623.39403285164337</v>
+      </c>
+      <c r="C47">
+        <v>354.04579807278441</v>
+      </c>
+      <c r="D47">
+        <v>3.7888042388698168E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>659.67795527330748</v>
+      </c>
+      <c r="C48">
+        <v>383.48703669482308</v>
+      </c>
+      <c r="D48">
+        <v>4.0826824026162167E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>648.5997723844697</v>
+      </c>
+      <c r="C49">
+        <v>372.45512999221262</v>
+      </c>
+      <c r="D49">
+        <v>3.9735298217788553E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1430,14 +1981,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1451,452 +2004,676 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>742.6959123970191</v>
+        <v>835.39602134548636</v>
       </c>
       <c r="C2">
-        <v>530.9717800834934</v>
+        <v>603.02016486766252</v>
       </c>
       <c r="D2">
-        <v>0.05354924788827985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6.027882585588229E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>773.1672411732167</v>
+        <v>787.3911270523239</v>
       </c>
       <c r="C3">
-        <v>559.8157998682702</v>
+        <v>569.24719832084929</v>
       </c>
       <c r="D3">
-        <v>0.05651424572206491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>5.6319509635226743E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>813.0888071270014</v>
+        <v>774.38578479286241</v>
       </c>
       <c r="C4">
-        <v>583.6841325382829</v>
+        <v>576.22885650071578</v>
       </c>
       <c r="D4">
-        <v>0.05846438965635712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>5.7943503503658643E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>842.8427141333784</v>
+        <v>746.89539475578954</v>
       </c>
       <c r="C5">
-        <v>605.4311916539035</v>
+        <v>537.38556697731144</v>
       </c>
       <c r="D5">
-        <v>0.06012788789163075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5.32816531197449E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>784.5058490299316</v>
+        <v>776.27753667512536</v>
       </c>
       <c r="C6">
-        <v>561.9817418261167</v>
+        <v>557.05313279910467</v>
       </c>
       <c r="D6">
-        <v>0.05630818905291662</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>5.5951333100058183E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>767.5142234741595</v>
+        <v>745.60402774473573</v>
       </c>
       <c r="C7">
-        <v>548.3283163138341</v>
+        <v>532.09517353459103</v>
       </c>
       <c r="D7">
-        <v>0.05427702819860101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>5.3368890454211657E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>874.0843961481844</v>
+        <v>730.80596768261671</v>
       </c>
       <c r="C8">
-        <v>627.5398769387624</v>
+        <v>522.20406219219819</v>
       </c>
       <c r="D8">
-        <v>0.06302334843704217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>5.2236543319068462E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>821.18654140019</v>
+        <v>761.70849022102971</v>
       </c>
       <c r="C9">
-        <v>582.3087459628002</v>
+        <v>549.31341967242463</v>
       </c>
       <c r="D9">
-        <v>0.05913439808459228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>5.5543817303538773E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>768.4753649738652</v>
+        <v>783.0996827350707</v>
       </c>
       <c r="C10">
-        <v>552.0560431650289</v>
+        <v>557.29817991250013</v>
       </c>
       <c r="D10">
-        <v>0.05577437211083808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>5.4892750850118771E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>784.1679891338016</v>
+        <v>734.60544875624907</v>
       </c>
       <c r="C11">
-        <v>565.1239382048805</v>
+        <v>530.56978038533214</v>
       </c>
       <c r="D11">
-        <v>0.05671536638441144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>5.2829380184824637E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>800.6985512628964</v>
+        <v>754.49475516965629</v>
       </c>
       <c r="C12">
-        <v>572.2958073590005</v>
+        <v>539.19620299115297</v>
       </c>
       <c r="D12">
-        <v>0.05778894934343792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>5.3920413471977333E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>762.8614031044054</v>
+        <v>743.02043318535004</v>
       </c>
       <c r="C13">
-        <v>545.0252822121217</v>
+        <v>532.73159000005955</v>
       </c>
       <c r="D13">
-        <v>0.05468327027219501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>5.3026843721302369E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>795.6238270241663</v>
+        <v>727.62208504252305</v>
       </c>
       <c r="C14">
-        <v>568.586306780341</v>
+        <v>522.21761535427027</v>
       </c>
       <c r="D14">
-        <v>0.05751355036465595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>5.2358490385626913E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>777.4904528613808</v>
+        <v>743.40513483890868</v>
       </c>
       <c r="C15">
-        <v>562.9933095237931</v>
+        <v>524.96608965866471</v>
       </c>
       <c r="D15">
-        <v>0.05654088479211252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>5.2708864693359878E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>821.2393519762868</v>
+        <v>757.96293878300537</v>
       </c>
       <c r="C16">
-        <v>582.7622617109771</v>
+        <v>542.74680191469122</v>
       </c>
       <c r="D16">
-        <v>0.05876300386980974</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>5.4290425708693212E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>821.7217707103111</v>
+        <v>738.80948076205254</v>
       </c>
       <c r="C17">
-        <v>582.8939879366785</v>
+        <v>522.98776452341997</v>
       </c>
       <c r="D17">
-        <v>0.05907595647171643</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>5.2368211222662317E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>821.413508507288</v>
+        <v>827.66732134016399</v>
       </c>
       <c r="C18">
-        <v>601.4730222843529</v>
+        <v>611.11330546049851</v>
       </c>
       <c r="D18">
-        <v>0.05906193588576884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>6.2534200431435052E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>783.2899947644264</v>
+        <v>868.88851043440468</v>
       </c>
       <c r="C19">
-        <v>567.6980265234085</v>
+        <v>626.94803476018774</v>
       </c>
       <c r="D19">
-        <v>0.05680326487653093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>6.3218131306780015E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>867.2069355305194</v>
+        <v>830.15562791505056</v>
       </c>
       <c r="C20">
-        <v>639.3489255302272</v>
+        <v>620.10973536271581</v>
       </c>
       <c r="D20">
-        <v>0.06252598936896558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>6.2843753798604185E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>775.7128301729159</v>
+        <v>811.82636700304988</v>
       </c>
       <c r="C21">
-        <v>557.7730191142285</v>
+        <v>589.64749504715007</v>
       </c>
       <c r="D21">
-        <v>0.05630063066211963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>5.871506434585877E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>832.5143041923955</v>
+        <v>777.81695835578876</v>
       </c>
       <c r="C22">
-        <v>592.4154121124805</v>
+        <v>567.4269515081794</v>
       </c>
       <c r="D22">
-        <v>0.05870147869997874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>5.6231844237341247E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>768.6638525612034</v>
+        <v>795.14778150665973</v>
       </c>
       <c r="C23">
-        <v>547.6395968288634</v>
+        <v>567.13390638808744</v>
       </c>
       <c r="D23">
-        <v>0.05495767336655355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>5.6670307428607243E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>876.8566365068532</v>
+        <v>873.262257626669</v>
       </c>
       <c r="C24">
-        <v>639.3709528158234</v>
+        <v>635.08209821576281</v>
       </c>
       <c r="D24">
-        <v>0.06500653683206607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>6.3229756122974809E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25">
-        <v>857.2037647462464</v>
+        <v>834.91241915808257</v>
       </c>
       <c r="C25">
-        <v>619.2866818464072</v>
+        <v>606.32562700017331</v>
       </c>
       <c r="D25">
-        <v>0.06170632236740393</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>6.0713473425082931E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>766.7431887676789</v>
+        <v>767.3060159895341</v>
       </c>
       <c r="C26">
-        <v>554.6965727781096</v>
+        <v>562.01780114104918</v>
       </c>
       <c r="D26">
-        <v>0.05560831403042384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>5.7471514328511719E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27">
-        <v>759.6559626614974</v>
+        <v>773.2233381704533</v>
       </c>
       <c r="C27">
-        <v>545.2151654673065</v>
+        <v>561.82396902504308</v>
       </c>
       <c r="D27">
-        <v>0.05453752196986801</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>5.6354318486830542E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B28">
-        <v>773.3646305009639</v>
+        <v>786.9385767370386</v>
       </c>
       <c r="C28">
-        <v>555.6953975943202</v>
+        <v>572.56469414468893</v>
       </c>
       <c r="D28">
-        <v>0.05486153050095839</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>5.6740020379067238E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B29">
-        <v>757.5965848556707</v>
+        <v>744.44021342471615</v>
       </c>
       <c r="C29">
-        <v>556.9819593827073</v>
+        <v>543.92227721403492</v>
       </c>
       <c r="D29">
-        <v>0.05536251328283533</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>5.3851603816789329E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B30">
-        <v>763.5265896608308</v>
+        <v>783.1507479009523</v>
       </c>
       <c r="C30">
-        <v>556.6910173811987</v>
+        <v>572.39894654184434</v>
       </c>
       <c r="D30">
-        <v>0.05564516389318717</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>5.727455834443964E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B31">
-        <v>762.5102226626775</v>
+        <v>767.52622787095345</v>
       </c>
       <c r="C31">
-        <v>552.290467501302</v>
+        <v>559.77833953140987</v>
       </c>
       <c r="D31">
-        <v>0.0550925457125729</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>5.5752756818259377E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B32">
-        <v>853.4676755035111</v>
+        <v>754.15045327306632</v>
       </c>
       <c r="C32">
-        <v>633.4950302192327</v>
+        <v>545.60991871298666</v>
       </c>
       <c r="D32">
-        <v>0.06233736580588232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>5.4319240898696303E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B33">
-        <v>846.6953906738701</v>
+        <v>792.70292844209325</v>
       </c>
       <c r="C33">
-        <v>608.5353414483268</v>
+        <v>567.3624202162224</v>
       </c>
       <c r="D33">
-        <v>0.0601441557694271</v>
+        <v>5.6332199215425427E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>864.11114368027029</v>
+      </c>
+      <c r="C34">
+        <v>658.53510462355405</v>
+      </c>
+      <c r="D34">
+        <v>6.6324635329939319E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>810.31189567151364</v>
+      </c>
+      <c r="C35">
+        <v>599.17988907423342</v>
+      </c>
+      <c r="D35">
+        <v>6.0163595744435937E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>791.91359173841761</v>
+      </c>
+      <c r="C36">
+        <v>586.33806534401765</v>
+      </c>
+      <c r="D36">
+        <v>5.8778862391608178E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>814.51197107779558</v>
+      </c>
+      <c r="C37">
+        <v>584.41635441419521</v>
+      </c>
+      <c r="D37">
+        <v>5.6716957165389499E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>954.41550552205979</v>
+      </c>
+      <c r="C38">
+        <v>698.35924163174445</v>
+      </c>
+      <c r="D38">
+        <v>7.0308512083496477E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>853.63901363923878</v>
+      </c>
+      <c r="C39">
+        <v>622.05973050873604</v>
+      </c>
+      <c r="D39">
+        <v>6.2345606448921093E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>779.25769915904641</v>
+      </c>
+      <c r="C40">
+        <v>579.5985771322454</v>
+      </c>
+      <c r="D40">
+        <v>5.8290791888730487E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>869.32496398696048</v>
+      </c>
+      <c r="C41">
+        <v>650.52680869352321</v>
+      </c>
+      <c r="D41">
+        <v>6.5234869407196E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>793.24958690764356</v>
+      </c>
+      <c r="C42">
+        <v>573.39395721184167</v>
+      </c>
+      <c r="D42">
+        <v>5.7345046330702573E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>788.62874380629671</v>
+      </c>
+      <c r="C43">
+        <v>575.58384555066698</v>
+      </c>
+      <c r="D43">
+        <v>5.7424299283091701E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>779.38031230369472</v>
+      </c>
+      <c r="C44">
+        <v>573.3449046518823</v>
+      </c>
+      <c r="D44">
+        <v>5.7053516295047853E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>735.80659276190784</v>
+      </c>
+      <c r="C45">
+        <v>529.67061601873331</v>
+      </c>
+      <c r="D45">
+        <v>5.2914643183026112E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>790.75571132902701</v>
+      </c>
+      <c r="C46">
+        <v>579.23584754668605</v>
+      </c>
+      <c r="D46">
+        <v>5.7084252049212907E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>777.00269431881634</v>
+      </c>
+      <c r="C47">
+        <v>558.02105273060863</v>
+      </c>
+      <c r="D47">
+        <v>5.5217563435392282E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>782.23358176792317</v>
+      </c>
+      <c r="C48">
+        <v>572.50252878023173</v>
+      </c>
+      <c r="D48">
+        <v>5.7128810067684797E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>824.9233296913211</v>
+      </c>
+      <c r="C49">
+        <v>594.60393388160946</v>
+      </c>
+      <c r="D49">
+        <v>5.8920574744581858E-2</v>
       </c>
     </row>
   </sheetData>
